--- a/Stenglein_Lab_Multiplex_Oligos.xlsx
+++ b/Stenglein_Lab_Multiplex_Oligos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="1207">
   <si>
     <t>Stenglein lab Nextera multiplexing adapters</t>
   </si>
@@ -2655,24 +2655,15 @@
     <t>H12R2</t>
   </si>
   <si>
-    <t>MDS-936 TruSeq D701 i7</t>
-  </si>
-  <si>
     <t>ATTACTCG</t>
   </si>
   <si>
-    <t>CGAGTAAT</t>
-  </si>
-  <si>
     <t>AGATCTCG</t>
   </si>
   <si>
     <t>CGAGATCT</t>
   </si>
   <si>
-    <t>CGATGT</t>
-  </si>
-  <si>
     <t>ATCACGAT</t>
   </si>
   <si>
@@ -2715,9 +2706,6 @@
     <t>AGTTCCGT</t>
   </si>
   <si>
-    <t>Kapa barcodes - from sample sheet 12/20/2016 NextSeq run</t>
-  </si>
-  <si>
     <t>I7_1</t>
   </si>
   <si>
@@ -2766,9 +2754,6 @@
     <t>i5_no_index</t>
   </si>
   <si>
-    <t>GATCGGAAGAGCACACGTCTGAACTCCAGTCAC ATTACTCG ATCTCGTATGCCGTCTTCTGCTTG</t>
-  </si>
-  <si>
     <t>CCGTCCCG</t>
   </si>
   <si>
@@ -2823,9 +2808,6 @@
     <t>ATTCCTTT</t>
   </si>
   <si>
-    <t>MDS_936</t>
-  </si>
-  <si>
     <t>"Y" duplex adapters ordered from IDT March 2017</t>
   </si>
   <si>
@@ -3331,6 +3313,336 @@
   </si>
   <si>
     <t>Kapa Adapter #</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I1R1</t>
+  </si>
+  <si>
+    <t>I1R2</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I2R1</t>
+  </si>
+  <si>
+    <t>I2R2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I3R1</t>
+  </si>
+  <si>
+    <t>I3R2</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I4R1</t>
+  </si>
+  <si>
+    <t>I4R2</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I5R1</t>
+  </si>
+  <si>
+    <t>I5R2</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>I6R1</t>
+  </si>
+  <si>
+    <t>I6R2</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>I7R1</t>
+  </si>
+  <si>
+    <t>I7R2</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>I8R1</t>
+  </si>
+  <si>
+    <t>I8R2</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>I9R1</t>
+  </si>
+  <si>
+    <t>I9R2</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>I10R1</t>
+  </si>
+  <si>
+    <t>I10R2</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>I11R1</t>
+  </si>
+  <si>
+    <t>I11R2</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>I12R1</t>
+  </si>
+  <si>
+    <t>I12R2</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAACCACTCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTTGCTCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCGAACTCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTAGCCATCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCCGTCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTCATCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAATTGGTCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAAGCTCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGGTCTCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGACACTCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTAGAGGTCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATCGGTCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTGTACGTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGCTTGAGTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAGGTGTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCGGAATGTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTGTGTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTACGTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGTATGTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCAGCGTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGCAGAGTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCAGTGTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCCGTTGTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACTCAGTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>Kapa Y duplexes (i.e. P/N KK8700)  N=24</t>
+  </si>
+  <si>
+    <t>IDT Y duplexes (same as Illumina D501/D701 series)  N=48</t>
+  </si>
+  <si>
+    <t>TAACCACT</t>
+  </si>
+  <si>
+    <t>GTGTTGCT</t>
+  </si>
+  <si>
+    <t>GTCGAACT</t>
+  </si>
+  <si>
+    <t>TTAGCCAT</t>
+  </si>
+  <si>
+    <t>TACTCCGT</t>
+  </si>
+  <si>
+    <t>TCTGTCAT</t>
+  </si>
+  <si>
+    <t>GAATTGGT</t>
+  </si>
+  <si>
+    <t>ACCAAGCT</t>
+  </si>
+  <si>
+    <t>GTTGGTCT</t>
+  </si>
+  <si>
+    <t>ACGACACT</t>
+  </si>
+  <si>
+    <t>TTAGAGGT</t>
+  </si>
+  <si>
+    <t>TGATCGGT</t>
+  </si>
+  <si>
+    <t>GTGGTTAG</t>
+  </si>
+  <si>
+    <t>GCAACACG</t>
+  </si>
+  <si>
+    <t>GTTCGACG</t>
+  </si>
+  <si>
+    <t>TGGCTAAG</t>
+  </si>
+  <si>
+    <t>CGGAGTAG</t>
+  </si>
+  <si>
+    <t>TGACAGAG</t>
+  </si>
+  <si>
+    <t>CCAATTCG</t>
+  </si>
+  <si>
+    <t>GCTTGGTG</t>
+  </si>
+  <si>
+    <t>GACCAACG</t>
+  </si>
+  <si>
+    <t>GTGTCGTG</t>
+  </si>
+  <si>
+    <t>CCTCTAAG</t>
+  </si>
+  <si>
+    <t>CCGATCAG</t>
+  </si>
+  <si>
+    <t>GTACAGGA</t>
+  </si>
+  <si>
+    <t>TCAAGCGA</t>
+  </si>
+  <si>
+    <t>ACCTCACA</t>
+  </si>
+  <si>
+    <t>ATTCCGCA</t>
+  </si>
+  <si>
+    <t>ACACTGTA</t>
+  </si>
+  <si>
+    <t>GTAGTTGA</t>
+  </si>
+  <si>
+    <t>ATACACCA</t>
+  </si>
+  <si>
+    <t>GCTGGATA</t>
+  </si>
+  <si>
+    <t>TCTGCCTA</t>
+  </si>
+  <si>
+    <t>ACTGAACA</t>
+  </si>
+  <si>
+    <t>AACGGACA</t>
+  </si>
+  <si>
+    <t>TGAGTAGA</t>
+  </si>
+  <si>
+    <t>CCTGTACG</t>
+  </si>
+  <si>
+    <t>CGCTTGAG</t>
+  </si>
+  <si>
+    <t>GTGAGGTG</t>
+  </si>
+  <si>
+    <t>GCGGAATG</t>
+  </si>
+  <si>
+    <t>ACAGTGTG</t>
+  </si>
+  <si>
+    <t>CAACTACG</t>
+  </si>
+  <si>
+    <t>GGTGTATG</t>
+  </si>
+  <si>
+    <t>ATCCAGCG</t>
+  </si>
+  <si>
+    <t>AGGCAGAG</t>
+  </si>
+  <si>
+    <t>GTTCAGTG</t>
+  </si>
+  <si>
+    <t>GTCCGTTG</t>
+  </si>
+  <si>
+    <t>CTACTCAG</t>
   </si>
 </sst>
 </file>
@@ -3437,7 +3749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -3940,8 +4252,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="260">
+  <cellStyleXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4202,8 +4568,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4364,8 +4782,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="260">
+  <cellStyles count="312">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4495,6 +4940,32 @@
     <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="63" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -4625,6 +5096,32 @@
     <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4954,10 +5451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J188"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4976,7 +5473,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18">
       <c r="A1" s="51" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18">
@@ -4986,7 +5483,7 @@
     </row>
     <row r="4" spans="1:10" ht="18">
       <c r="A4" s="34" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -5006,22 +5503,22 @@
     </row>
     <row r="6" spans="1:10" ht="60">
       <c r="A6" s="18" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="28"/>
@@ -7232,1600 +7729,1874 @@
       <c r="J102" s="29"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="76" t="s">
         <v>780</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="77" t="s">
         <v>583</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="78" t="s">
         <v>388</v>
       </c>
-      <c r="E103" s="33" t="s">
+      <c r="E103" s="76" t="s">
         <v>876</v>
       </c>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="78" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="18">
-      <c r="A107" s="34" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
+    <row r="104" spans="1:10">
+      <c r="A104" s="72" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B104" s="73" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C104" s="74" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D104" s="75" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E104" s="73" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F104" s="75" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="16" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E107" s="32" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="B108" s="27" t="s">
+      <c r="A108" s="16" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="16" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E113" s="32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="16" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="18">
+      <c r="A119" s="34" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="B120" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="27" t="s">
+      <c r="C120" s="25"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="F108" s="26"/>
-    </row>
-    <row r="109" spans="1:10" ht="60">
-      <c r="A109" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="19"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="36" t="s">
+      <c r="F120" s="26"/>
+    </row>
+    <row r="121" spans="1:10" ht="60">
+      <c r="A121" s="18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="19"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="36" t="s">
         <v>584</v>
       </c>
-      <c r="D110" s="36" t="s">
+      <c r="D122" s="36" t="s">
         <v>588</v>
       </c>
-      <c r="E110" s="30"/>
-      <c r="F110" s="36" t="s">
+      <c r="E122" s="30"/>
+      <c r="F122" s="36" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="37">
+    <row r="123" spans="1:10">
+      <c r="A123" s="37">
         <v>1</v>
       </c>
-      <c r="B111" s="41" t="s">
-        <v>913</v>
-      </c>
-      <c r="C111" s="6" t="s">
+      <c r="B123" s="41" t="s">
+        <v>909</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="D123" s="38" t="s">
+        <v>878</v>
+      </c>
+      <c r="E123" s="41" t="s">
+        <v>894</v>
+      </c>
+      <c r="F123" s="38" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="13">
+        <v>2</v>
+      </c>
+      <c r="B124" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D124" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E124" s="42" t="s">
+        <v>895</v>
+      </c>
+      <c r="F124" s="39" t="s">
         <v>881</v>
       </c>
-      <c r="D111" s="38" t="s">
-        <v>880</v>
-      </c>
-      <c r="E111" s="41" t="s">
-        <v>898</v>
-      </c>
-      <c r="F111" s="38" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="13">
-        <v>2</v>
-      </c>
-      <c r="B112" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D112" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E112" s="42" t="s">
-        <v>899</v>
-      </c>
-      <c r="F112" s="39" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="13">
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="13">
         <v>3</v>
       </c>
-      <c r="B113" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D113" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E113" s="42" t="s">
-        <v>900</v>
-      </c>
-      <c r="F113" s="39" t="s">
-        <v>885</v>
-      </c>
-      <c r="H113"/>
-      <c r="I113"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="13">
-        <v>4</v>
-      </c>
-      <c r="B114" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D114" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E114" s="42" t="s">
-        <v>901</v>
-      </c>
-      <c r="F114" s="39" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="13">
-        <v>5</v>
-      </c>
-      <c r="B115" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D115" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E115" s="42" t="s">
-        <v>902</v>
-      </c>
-      <c r="F115" s="39" t="s">
-        <v>887</v>
-      </c>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="13">
-        <v>6</v>
-      </c>
-      <c r="B116" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D116" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E116" s="42" t="s">
-        <v>903</v>
-      </c>
-      <c r="F116" s="39" t="s">
-        <v>888</v>
-      </c>
-      <c r="H116"/>
-      <c r="I116"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="13">
-        <v>7</v>
-      </c>
-      <c r="B117" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D117" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E117" s="42" t="s">
-        <v>904</v>
-      </c>
-      <c r="F117" s="39" t="s">
-        <v>889</v>
-      </c>
-      <c r="H117"/>
-      <c r="I117"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="13">
-        <v>8</v>
-      </c>
-      <c r="B118" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D118" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E118" s="42" t="s">
-        <v>905</v>
-      </c>
-      <c r="F118" s="39" t="s">
-        <v>890</v>
-      </c>
-      <c r="H118"/>
-      <c r="I118"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="13">
-        <v>9</v>
-      </c>
-      <c r="B119" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D119" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E119" s="42" t="s">
-        <v>906</v>
-      </c>
-      <c r="F119" s="39" t="s">
-        <v>891</v>
-      </c>
-      <c r="H119"/>
-      <c r="I119"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="13">
-        <v>10</v>
-      </c>
-      <c r="B120" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D120" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E120" s="42" t="s">
-        <v>907</v>
-      </c>
-      <c r="F120" s="39" t="s">
-        <v>892</v>
-      </c>
-      <c r="H120"/>
-      <c r="I120"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="13">
-        <v>11</v>
-      </c>
-      <c r="B121" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D121" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E121" s="42" t="s">
-        <v>908</v>
-      </c>
-      <c r="F121" s="39" t="s">
-        <v>893</v>
-      </c>
-      <c r="H121"/>
-      <c r="I121"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="13">
-        <v>12</v>
-      </c>
-      <c r="B122" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D122" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E122" s="42" t="s">
+      <c r="B125" s="42" t="s">
         <v>909</v>
       </c>
-      <c r="F122" s="39" t="s">
-        <v>894</v>
-      </c>
-      <c r="H122"/>
-      <c r="I122"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="13">
-        <v>13</v>
-      </c>
-      <c r="B123" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D123" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E123" s="42" t="s">
-        <v>910</v>
-      </c>
-      <c r="F123" s="39" t="s">
-        <v>895</v>
-      </c>
-      <c r="H123"/>
-      <c r="I123"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="13">
-        <v>14</v>
-      </c>
-      <c r="B124" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D124" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E124" s="42" t="s">
-        <v>911</v>
-      </c>
-      <c r="F124" s="39" t="s">
+      <c r="C125" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D125" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E125" s="42" t="s">
         <v>896</v>
       </c>
-      <c r="H124"/>
-      <c r="I124"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="13">
-        <v>15</v>
-      </c>
-      <c r="B125" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D125" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E125" s="42" t="s">
-        <v>912</v>
-      </c>
       <c r="F125" s="39" t="s">
-        <v>483</v>
+        <v>882</v>
       </c>
       <c r="H125"/>
       <c r="I125"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:10">
       <c r="A126" s="13">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B126" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D126" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E126" s="32" t="s">
-        <v>919</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>915</v>
-      </c>
-      <c r="H126"/>
-      <c r="I126"/>
-    </row>
-    <row r="127" spans="1:9">
+        <v>878</v>
+      </c>
+      <c r="E126" s="42" t="s">
+        <v>897</v>
+      </c>
+      <c r="F126" s="39" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="13">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B127" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D127" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E127" s="32" t="s">
-        <v>920</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="H127"/>
-      <c r="I127"/>
-    </row>
-    <row r="128" spans="1:9">
+        <v>878</v>
+      </c>
+      <c r="E127" s="42" t="s">
+        <v>898</v>
+      </c>
+      <c r="F127" s="39" t="s">
+        <v>884</v>
+      </c>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="13">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B128" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D128" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E128" s="32" t="s">
-        <v>921</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>917</v>
+        <v>878</v>
+      </c>
+      <c r="E128" s="42" t="s">
+        <v>899</v>
+      </c>
+      <c r="F128" s="39" t="s">
+        <v>885</v>
       </c>
       <c r="H128"/>
       <c r="I128"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="13">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D129" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E129" s="32" t="s">
-        <v>922</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>918</v>
+        <v>878</v>
+      </c>
+      <c r="E129" s="42" t="s">
+        <v>900</v>
+      </c>
+      <c r="F129" s="39" t="s">
+        <v>886</v>
       </c>
       <c r="H129"/>
       <c r="I129"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="13">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B130" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D130" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E130" s="32" t="s">
-        <v>923</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>928</v>
+        <v>878</v>
+      </c>
+      <c r="E130" s="42" t="s">
+        <v>901</v>
+      </c>
+      <c r="F130" s="39" t="s">
+        <v>887</v>
       </c>
       <c r="H130"/>
       <c r="I130"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="13">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B131" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D131" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E131" s="32" t="s">
-        <v>924</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>929</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="E131" s="42" t="s">
+        <v>902</v>
+      </c>
+      <c r="F131" s="39" t="s">
+        <v>888</v>
+      </c>
+      <c r="H131"/>
+      <c r="I131"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="13">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B132" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D132" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E132" s="32" t="s">
-        <v>925</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>930</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="E132" s="42" t="s">
+        <v>903</v>
+      </c>
+      <c r="F132" s="39" t="s">
+        <v>889</v>
+      </c>
+      <c r="H132"/>
+      <c r="I132"/>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="13">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B133" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D133" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E133" s="42" t="s">
+        <v>904</v>
+      </c>
+      <c r="F133" s="39" t="s">
+        <v>890</v>
+      </c>
+      <c r="H133"/>
+      <c r="I133"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="13">
+        <v>12</v>
+      </c>
+      <c r="B134" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D134" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E134" s="42" t="s">
+        <v>905</v>
+      </c>
+      <c r="F134" s="39" t="s">
+        <v>891</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="13">
+        <v>13</v>
+      </c>
+      <c r="B135" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D135" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E135" s="42" t="s">
+        <v>906</v>
+      </c>
+      <c r="F135" s="39" t="s">
+        <v>892</v>
+      </c>
+      <c r="H135"/>
+      <c r="I135"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="13">
+        <v>14</v>
+      </c>
+      <c r="B136" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D136" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E136" s="42" t="s">
+        <v>907</v>
+      </c>
+      <c r="F136" s="39" t="s">
+        <v>893</v>
+      </c>
+      <c r="H136"/>
+      <c r="I136"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="13">
+        <v>15</v>
+      </c>
+      <c r="B137" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D137" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E137" s="42" t="s">
+        <v>908</v>
+      </c>
+      <c r="F137" s="39" t="s">
+        <v>483</v>
+      </c>
+      <c r="H137"/>
+      <c r="I137"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="13">
+        <v>16</v>
+      </c>
+      <c r="B138" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E138" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="H138"/>
+      <c r="I138"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="13">
+        <v>18</v>
+      </c>
+      <c r="B139" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D139" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E139" s="32" t="s">
+        <v>915</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="H139"/>
+      <c r="I139"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="13">
+        <v>19</v>
+      </c>
+      <c r="B140" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D140" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E140" s="32" t="s">
+        <v>916</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="13">
+        <v>20</v>
+      </c>
+      <c r="B141" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D141" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E141" s="32" t="s">
+        <v>917</v>
+      </c>
+      <c r="F141" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D133" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E133" s="32" t="s">
-        <v>926</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="14">
-        <v>27</v>
-      </c>
-      <c r="B134" s="44" t="s">
-        <v>913</v>
-      </c>
-      <c r="C134" s="40" t="s">
-        <v>881</v>
-      </c>
-      <c r="D134" s="43" t="s">
-        <v>880</v>
-      </c>
-      <c r="E134" s="33" t="s">
-        <v>927</v>
-      </c>
-      <c r="F134" s="10" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="18">
-      <c r="A137" s="34" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B137" s="35"/>
-      <c r="C137" s="35"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="B138" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="C138" s="25"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="F138" s="26"/>
-    </row>
-    <row r="139" spans="1:9" ht="60">
-      <c r="A139" s="18" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="19"/>
-      <c r="B140" s="30"/>
-      <c r="C140" s="36" t="s">
-        <v>584</v>
-      </c>
-      <c r="D140" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="E140" s="30"/>
-      <c r="F140" s="36" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="37">
-        <v>1</v>
-      </c>
-      <c r="B141" s="41" t="s">
-        <v>942</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D141" s="38" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E141" s="41" t="s">
-        <v>944</v>
-      </c>
-      <c r="F141" s="38" t="s">
-        <v>878</v>
-      </c>
+      <c r="H141"/>
+      <c r="I141"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B142" s="42" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>1072</v>
+        <v>879</v>
       </c>
       <c r="D142" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E142" s="42" t="s">
-        <v>947</v>
-      </c>
-      <c r="F142" s="39" t="s">
-        <v>1061</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="E142" s="32" t="s">
+        <v>918</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="H142"/>
+      <c r="I142"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="13">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B143" s="42" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>1072</v>
+        <v>879</v>
       </c>
       <c r="D143" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E143" s="42" t="s">
-        <v>950</v>
-      </c>
-      <c r="F143" s="39" t="s">
-        <v>1062</v>
+        <v>878</v>
+      </c>
+      <c r="E143" s="32" t="s">
+        <v>919</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="13">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B144" s="42" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>1072</v>
+        <v>879</v>
       </c>
       <c r="D144" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E144" s="42" t="s">
-        <v>953</v>
-      </c>
-      <c r="F144" s="39" t="s">
-        <v>1063</v>
+        <v>878</v>
+      </c>
+      <c r="E144" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="13">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B145" s="42" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>1072</v>
+        <v>879</v>
       </c>
       <c r="D145" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E145" s="42" t="s">
-        <v>956</v>
-      </c>
-      <c r="F145" s="39" t="s">
-        <v>1064</v>
+        <v>878</v>
+      </c>
+      <c r="E145" s="32" t="s">
+        <v>921</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="13">
-        <v>6</v>
-      </c>
-      <c r="B146" s="42" t="s">
-        <v>942</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D146" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E146" s="42" t="s">
-        <v>959</v>
-      </c>
-      <c r="F146" s="39" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="13">
-        <v>7</v>
-      </c>
-      <c r="B147" s="42" t="s">
-        <v>942</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D147" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E147" s="42" t="s">
-        <v>962</v>
-      </c>
-      <c r="F147" s="39" t="s">
+      <c r="A146" s="14">
+        <v>27</v>
+      </c>
+      <c r="B146" s="44" t="s">
+        <v>909</v>
+      </c>
+      <c r="C146" s="40" t="s">
+        <v>879</v>
+      </c>
+      <c r="D146" s="43" t="s">
+        <v>878</v>
+      </c>
+      <c r="E146" s="33" t="s">
+        <v>922</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="18">
+      <c r="A149" s="34" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B149" s="35"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="35"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="B150" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="C150" s="25"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="F150" s="26"/>
+    </row>
+    <row r="151" spans="1:6" ht="60">
+      <c r="A151" s="18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="19"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="D152" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="E152" s="30"/>
+      <c r="F152" s="36" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="37">
+        <v>1</v>
+      </c>
+      <c r="B153" s="41" t="s">
+        <v>936</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="13">
-        <v>8</v>
-      </c>
-      <c r="B148" s="42" t="s">
-        <v>942</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D148" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E148" s="42" t="s">
-        <v>965</v>
-      </c>
-      <c r="F148" s="39" t="s">
+      <c r="D153" s="38" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="13">
-        <v>9</v>
-      </c>
-      <c r="B149" s="42" t="s">
-        <v>942</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D149" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E149" s="42" t="s">
-        <v>968</v>
-      </c>
-      <c r="F149" s="39" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="13">
-        <v>10</v>
-      </c>
-      <c r="B150" s="42" t="s">
-        <v>942</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D150" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E150" s="42" t="s">
-        <v>971</v>
-      </c>
-      <c r="F150" s="39" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="13">
-        <v>11</v>
-      </c>
-      <c r="B151" s="42" t="s">
-        <v>942</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D151" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E151" s="42" t="s">
-        <v>974</v>
-      </c>
-      <c r="F151" s="39" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="13">
-        <v>12</v>
-      </c>
-      <c r="B152" s="42" t="s">
-        <v>942</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D152" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E152" s="42" t="s">
-        <v>977</v>
-      </c>
-      <c r="F152" s="39" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="13">
-        <v>13</v>
-      </c>
-      <c r="B153" s="42" t="s">
-        <v>980</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D153" s="39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E153" s="42" t="s">
-        <v>944</v>
-      </c>
-      <c r="F153" s="39" t="s">
-        <v>878</v>
+      <c r="E153" s="41" t="s">
+        <v>938</v>
+      </c>
+      <c r="F153" s="38" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B154" s="42" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D154" s="39" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="F154" s="39" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B155" s="42" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D155" s="39" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E155" s="42" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="13">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B156" s="42" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D156" s="39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E156" s="32" t="s">
-        <v>953</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>1063</v>
+        <v>1067</v>
+      </c>
+      <c r="E156" s="42" t="s">
+        <v>947</v>
+      </c>
+      <c r="F156" s="39" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="13">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B157" s="42" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D157" s="39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E157" s="32" t="s">
-        <v>956</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>1064</v>
+        <v>1067</v>
+      </c>
+      <c r="E157" s="42" t="s">
+        <v>950</v>
+      </c>
+      <c r="F157" s="39" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="13">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B158" s="42" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D158" s="39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E158" s="32" t="s">
-        <v>959</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>1065</v>
+        <v>1067</v>
+      </c>
+      <c r="E158" s="42" t="s">
+        <v>953</v>
+      </c>
+      <c r="F158" s="39" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="13">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B159" s="42" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D159" s="39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E159" s="32" t="s">
-        <v>962</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>1066</v>
+        <v>1067</v>
+      </c>
+      <c r="E159" s="42" t="s">
+        <v>956</v>
+      </c>
+      <c r="F159" s="39" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B160" s="42" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D160" s="39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E160" s="32" t="s">
-        <v>965</v>
-      </c>
-      <c r="F160" s="9" t="s">
         <v>1067</v>
+      </c>
+      <c r="E160" s="42" t="s">
+        <v>959</v>
+      </c>
+      <c r="F160" s="39" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="13">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B161" s="42" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D161" s="39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E161" s="32" t="s">
-        <v>968</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>1068</v>
+        <v>1067</v>
+      </c>
+      <c r="E161" s="42" t="s">
+        <v>962</v>
+      </c>
+      <c r="F161" s="39" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="13">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B162" s="42" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D162" s="39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E162" s="32" t="s">
-        <v>971</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>1069</v>
+        <v>1067</v>
+      </c>
+      <c r="E162" s="42" t="s">
+        <v>965</v>
+      </c>
+      <c r="F162" s="39" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="13">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B163" s="42" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D163" s="39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E163" s="32" t="s">
-        <v>974</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>1070</v>
+        <v>1067</v>
+      </c>
+      <c r="E163" s="42" t="s">
+        <v>968</v>
+      </c>
+      <c r="F163" s="39" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="45">
-        <v>24</v>
-      </c>
-      <c r="B164" s="46" t="s">
-        <v>980</v>
-      </c>
-      <c r="C164" s="47" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D164" s="48" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E164" s="49" t="s">
-        <v>977</v>
-      </c>
-      <c r="F164" s="50" t="s">
-        <v>1071</v>
+      <c r="A164" s="13">
+        <v>12</v>
+      </c>
+      <c r="B164" s="42" t="s">
+        <v>936</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D164" s="39" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E164" s="42" t="s">
+        <v>971</v>
+      </c>
+      <c r="F164" s="39" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="13">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B165" s="42" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="D165" s="39" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="E165" s="42" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F165" s="39" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="13">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B166" s="42" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="D166" s="39" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="E166" s="42" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="F166" s="39" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="13">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B167" s="42" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="D167" s="39" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="E167" s="42" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="F167" s="39" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="13">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B168" s="42" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="D168" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E168" s="42" t="s">
-        <v>953</v>
-      </c>
-      <c r="F168" s="39" t="s">
-        <v>1063</v>
+        <v>1069</v>
+      </c>
+      <c r="E168" s="32" t="s">
+        <v>947</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="13">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B169" s="42" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="D169" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E169" s="42" t="s">
-        <v>956</v>
-      </c>
-      <c r="F169" s="39" t="s">
-        <v>1064</v>
+        <v>1069</v>
+      </c>
+      <c r="E169" s="32" t="s">
+        <v>950</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="13">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B170" s="42" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="D170" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E170" s="42" t="s">
-        <v>959</v>
-      </c>
-      <c r="F170" s="39" t="s">
-        <v>1065</v>
+        <v>1069</v>
+      </c>
+      <c r="E170" s="32" t="s">
+        <v>953</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="13">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B171" s="42" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="D171" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E171" s="42" t="s">
-        <v>962</v>
-      </c>
-      <c r="F171" s="39" t="s">
-        <v>1066</v>
+        <v>1069</v>
+      </c>
+      <c r="E171" s="32" t="s">
+        <v>956</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="13">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B172" s="42" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="D172" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E172" s="42" t="s">
-        <v>965</v>
-      </c>
-      <c r="F172" s="39" t="s">
-        <v>1067</v>
+        <v>1069</v>
+      </c>
+      <c r="E172" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="13">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="D173" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E173" s="42" t="s">
-        <v>968</v>
-      </c>
-      <c r="F173" s="39" t="s">
-        <v>1068</v>
+        <v>1069</v>
+      </c>
+      <c r="E173" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="13">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="D174" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E174" s="42" t="s">
-        <v>971</v>
-      </c>
-      <c r="F174" s="39" t="s">
         <v>1069</v>
+      </c>
+      <c r="E174" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="13">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B175" s="42" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="D175" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E175" s="42" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E175" s="32" t="s">
+        <v>968</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="45">
+        <v>24</v>
+      </c>
+      <c r="B176" s="46" t="s">
         <v>974</v>
       </c>
-      <c r="F175" s="39" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="13">
-        <v>36</v>
-      </c>
-      <c r="B176" s="42" t="s">
-        <v>994</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D176" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E176" s="42" t="s">
-        <v>977</v>
-      </c>
-      <c r="F176" s="39" t="s">
-        <v>1071</v>
+      <c r="C176" s="47" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D176" s="48" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E176" s="49" t="s">
+        <v>971</v>
+      </c>
+      <c r="F176" s="50" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="13">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B177" s="42" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="D177" s="39" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="E177" s="42" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="13">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B178" s="42" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="D178" s="39" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="E178" s="42" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="13">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B179" s="42" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="D179" s="39" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="E179" s="42" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="13">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B180" s="42" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="D180" s="39" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E180" s="32" t="s">
-        <v>953</v>
-      </c>
-      <c r="F180" s="9" t="s">
-        <v>1063</v>
+        <v>1071</v>
+      </c>
+      <c r="E180" s="42" t="s">
+        <v>947</v>
+      </c>
+      <c r="F180" s="39" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="13">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B181" s="42" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="D181" s="39" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E181" s="32" t="s">
-        <v>956</v>
-      </c>
-      <c r="F181" s="9" t="s">
-        <v>1064</v>
+        <v>1071</v>
+      </c>
+      <c r="E181" s="42" t="s">
+        <v>950</v>
+      </c>
+      <c r="F181" s="39" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="13">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B182" s="42" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="D182" s="39" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E182" s="32" t="s">
-        <v>959</v>
-      </c>
-      <c r="F182" s="9" t="s">
-        <v>1065</v>
+        <v>1071</v>
+      </c>
+      <c r="E182" s="42" t="s">
+        <v>953</v>
+      </c>
+      <c r="F182" s="39" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="13">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B183" s="42" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="D183" s="39" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E183" s="32" t="s">
-        <v>962</v>
-      </c>
-      <c r="F183" s="9" t="s">
-        <v>1066</v>
+        <v>1071</v>
+      </c>
+      <c r="E183" s="42" t="s">
+        <v>956</v>
+      </c>
+      <c r="F183" s="39" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="13">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B184" s="42" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="D184" s="39" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E184" s="32" t="s">
-        <v>965</v>
-      </c>
-      <c r="F184" s="9" t="s">
-        <v>1067</v>
+        <v>1071</v>
+      </c>
+      <c r="E184" s="42" t="s">
+        <v>959</v>
+      </c>
+      <c r="F184" s="39" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="13">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B185" s="42" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="D185" s="39" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E185" s="32" t="s">
-        <v>968</v>
-      </c>
-      <c r="F185" s="9" t="s">
-        <v>1068</v>
+        <v>1071</v>
+      </c>
+      <c r="E185" s="42" t="s">
+        <v>962</v>
+      </c>
+      <c r="F185" s="39" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="13">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B186" s="42" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="D186" s="39" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E186" s="32" t="s">
-        <v>971</v>
-      </c>
-      <c r="F186" s="9" t="s">
-        <v>1069</v>
+        <v>1071</v>
+      </c>
+      <c r="E186" s="42" t="s">
+        <v>965</v>
+      </c>
+      <c r="F186" s="39" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="13">
+        <v>35</v>
+      </c>
+      <c r="B187" s="42" t="s">
+        <v>988</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D187" s="39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E187" s="42" t="s">
+        <v>968</v>
+      </c>
+      <c r="F187" s="39" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="13">
+        <v>36</v>
+      </c>
+      <c r="B188" s="42" t="s">
+        <v>988</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D188" s="39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E188" s="42" t="s">
+        <v>971</v>
+      </c>
+      <c r="F188" s="39" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="13">
+        <v>37</v>
+      </c>
+      <c r="B189" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D189" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E189" s="42" t="s">
+        <v>938</v>
+      </c>
+      <c r="F189" s="39" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="13">
+        <v>38</v>
+      </c>
+      <c r="B190" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D190" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E190" s="42" t="s">
+        <v>941</v>
+      </c>
+      <c r="F190" s="39" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="13">
+        <v>39</v>
+      </c>
+      <c r="B191" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D191" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E191" s="42" t="s">
+        <v>944</v>
+      </c>
+      <c r="F191" s="39" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="13">
+        <v>40</v>
+      </c>
+      <c r="B192" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D192" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E192" s="32" t="s">
+        <v>947</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="13">
+        <v>41</v>
+      </c>
+      <c r="B193" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D193" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E193" s="32" t="s">
+        <v>950</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="13">
+        <v>42</v>
+      </c>
+      <c r="B194" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D194" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E194" s="32" t="s">
+        <v>953</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="13">
+        <v>43</v>
+      </c>
+      <c r="B195" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D195" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E195" s="32" t="s">
+        <v>956</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="13">
+        <v>44</v>
+      </c>
+      <c r="B196" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D196" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E196" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="13">
+        <v>45</v>
+      </c>
+      <c r="B197" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D197" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E197" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="13">
+        <v>46</v>
+      </c>
+      <c r="B198" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D198" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E198" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="13">
         <v>47</v>
       </c>
-      <c r="B187" s="42" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D187" s="39" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E187" s="32" t="s">
-        <v>974</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="14">
+      <c r="B199" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D199" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E199" s="32" t="s">
+        <v>968</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="14">
         <v>48</v>
       </c>
-      <c r="B188" s="44" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C188" s="40" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D188" s="43" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E188" s="33" t="s">
-        <v>977</v>
-      </c>
-      <c r="F188" s="10" t="s">
-        <v>1071</v>
+      <c r="B200" s="44" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C200" s="40" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D200" s="43" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E200" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -8841,12 +9612,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane ySplit="2060" activePane="bottomLeft"/>
+      <pane ySplit="2060" topLeftCell="A95" activePane="bottomLeft"/>
       <selection activeCell="G7" activeCellId="2" sqref="C7 D7 G7"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="G104" sqref="G104:G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12003,260 +12774,511 @@
       <c r="G103" s="10" t="s">
         <v>487</v>
       </c>
+      <c r="I103" s="16" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J103" s="16" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K103" s="16" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D104" s="70" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F104" s="37" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G104" s="70" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I104" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J104" s="16" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K104" s="16" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I105" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J105" s="16" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K105" s="16" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I106" s="16" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J106" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K106" s="16" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="16" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I107" s="16" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J107" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K107" s="16" t="s">
+        <v>1149</v>
+      </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="J108" s="2" t="s">
-        <v>914</v>
+      <c r="A108" s="16" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I108" s="16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J108" s="16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K108" s="16" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="C109" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>914</v>
+      <c r="A109" s="16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I109" s="16" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J109" s="16" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K109" s="16" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="D110"/>
+      <c r="A110" s="16" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J110" s="16" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K110" s="16" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I111" s="16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J111" s="16" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K111" s="16" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="J112" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="113" spans="4:10">
-      <c r="I113" t="s">
-        <v>913</v>
-      </c>
-      <c r="J113" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="114" spans="4:10">
-      <c r="D114" s="2" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="115" spans="4:10">
-      <c r="J115" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="116" spans="4:10">
-      <c r="I116" t="s">
-        <v>898</v>
-      </c>
-      <c r="J116" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="117" spans="4:10">
-      <c r="I117" t="s">
-        <v>899</v>
-      </c>
-      <c r="J117" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="118" spans="4:10">
-      <c r="I118" t="s">
-        <v>900</v>
-      </c>
-      <c r="J118" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="119" spans="4:10">
-      <c r="I119" t="s">
-        <v>901</v>
-      </c>
-      <c r="J119" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="120" spans="4:10">
-      <c r="I120" t="s">
-        <v>902</v>
-      </c>
-      <c r="J120" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="121" spans="4:10">
-      <c r="I121" t="s">
-        <v>903</v>
-      </c>
-      <c r="J121" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="122" spans="4:10">
-      <c r="I122" t="s">
-        <v>904</v>
-      </c>
-      <c r="J122" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="123" spans="4:10">
-      <c r="I123" t="s">
-        <v>905</v>
-      </c>
-      <c r="J123" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="124" spans="4:10">
-      <c r="I124" t="s">
-        <v>906</v>
-      </c>
-      <c r="J124" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="125" spans="4:10">
-      <c r="I125" t="s">
-        <v>907</v>
-      </c>
-      <c r="J125" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="126" spans="4:10">
-      <c r="I126" t="s">
-        <v>908</v>
-      </c>
-      <c r="J126" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="127" spans="4:10">
-      <c r="I127" t="s">
-        <v>909</v>
-      </c>
-      <c r="J127" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="128" spans="4:10">
-      <c r="I128" t="s">
-        <v>910</v>
-      </c>
-      <c r="J128" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="129" spans="9:10">
-      <c r="I129" t="s">
-        <v>911</v>
-      </c>
-      <c r="J129" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="130" spans="9:10">
-      <c r="I130" t="s">
-        <v>912</v>
-      </c>
-      <c r="J130" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="131" spans="9:10">
-      <c r="I131" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="132" spans="9:10">
-      <c r="I132" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="133" spans="9:10">
-      <c r="I133" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="134" spans="9:10">
-      <c r="I134" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="135" spans="9:10">
-      <c r="I135" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="136" spans="9:10">
-      <c r="I136" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="137" spans="9:10">
-      <c r="I137" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="138" spans="9:10">
-      <c r="I138" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="139" spans="9:10">
-      <c r="I139" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="141" spans="9:10">
-      <c r="I141" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>878</v>
-      </c>
+      <c r="A112" s="16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K113" s="16" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="16" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I114" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K114" s="17" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B115" s="40" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E115" s="40" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="I116"/>
+      <c r="J116"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="I117"/>
+      <c r="J117"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="I118"/>
+      <c r="J118"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="I119"/>
+      <c r="J119"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="I120"/>
+      <c r="J120"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="I121"/>
+      <c r="J121"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="I122"/>
+      <c r="J122"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="I123"/>
+      <c r="J123"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="I124"/>
+      <c r="J124"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="E125" s="71"/>
+      <c r="I125"/>
+      <c r="J125"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="E126" s="71"/>
+      <c r="I126"/>
+      <c r="J126"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="E127" s="71"/>
+      <c r="I127"/>
+      <c r="J127"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="E128" s="71"/>
+      <c r="I128"/>
+      <c r="J128"/>
+    </row>
+    <row r="129" spans="5:10">
+      <c r="E129" s="71"/>
+      <c r="I129"/>
+      <c r="J129"/>
+    </row>
+    <row r="130" spans="5:10">
+      <c r="E130" s="71"/>
+      <c r="I130"/>
+      <c r="J130"/>
+    </row>
+    <row r="131" spans="5:10">
+      <c r="E131" s="71"/>
+    </row>
+    <row r="132" spans="5:10">
+      <c r="E132" s="71"/>
+    </row>
+    <row r="133" spans="5:10">
+      <c r="E133" s="71"/>
+    </row>
+    <row r="134" spans="5:10">
+      <c r="E134" s="71"/>
+    </row>
+    <row r="135" spans="5:10">
+      <c r="E135" s="71"/>
+    </row>
+    <row r="136" spans="5:10">
+      <c r="E136" s="71"/>
+    </row>
+    <row r="137" spans="5:10">
+      <c r="E137" s="71"/>
+    </row>
+    <row r="138" spans="5:10">
+      <c r="E138" s="71"/>
+    </row>
+    <row r="139" spans="5:10">
+      <c r="E139" s="71"/>
+    </row>
+    <row r="140" spans="5:10">
+      <c r="E140" s="71"/>
+    </row>
+    <row r="141" spans="5:10">
+      <c r="E141" s="71"/>
+    </row>
+    <row r="142" spans="5:10">
+      <c r="E142" s="71"/>
+    </row>
+    <row r="143" spans="5:10">
+      <c r="E143" s="71"/>
+    </row>
+    <row r="144" spans="5:10">
+      <c r="E144" s="71"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="71"/>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="71"/>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" s="71"/>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12288,1304 +13310,1304 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="53" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="53" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="F4" s="66" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="G4" s="67"/>
       <c r="H4" s="68" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="24">
       <c r="A5" s="23" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="24" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="24" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>941</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>943</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>947</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>948</v>
-      </c>
       <c r="F7" s="60" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="24" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="H8" s="62" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="24" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="24" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G10" s="61" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="H10" s="62" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="24" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="24" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="24" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="24" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="24" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="H15" s="62" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="24" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="H16" s="62" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="24" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="H17" s="62" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="24" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H18" s="62" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="24" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H19" s="62" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="24" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="24" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H21" s="62" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="24" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G22" s="61" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H22" s="62" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="24" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F23" s="60" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H23" s="62" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="24" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H24" s="62" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="24" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H25" s="62" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="24" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H26" s="62" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="24" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="F27" s="60" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H27" s="62" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="24" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G28" s="61" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H28" s="62" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="24" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="F29" s="60" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H29" s="62" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="24" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="F30" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="H30" s="62" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="24" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="F31" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="H31" s="62" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="24" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="H32" s="62" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="24" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="H33" s="62" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="24" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G34" s="61" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="H34" s="62" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="24" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F35" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G35" s="61" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="H35" s="62" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="24" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G36" s="61" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="H36" s="62" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="24" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F37" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="H37" s="62" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="24" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="F38" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G38" s="61" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="H38" s="62" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="24" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G39" s="61" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="H39" s="62" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="24" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G40" s="61" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="H40" s="62" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="24" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="F41" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G41" s="61" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="H41" s="62" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="24" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="F42" s="60" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G42" s="61" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H42" s="62" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="24" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="F43" s="60" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G43" s="61" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H43" s="62" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="24" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="F44" s="60" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G44" s="61" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H44" s="62" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="24" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="F45" s="60" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H45" s="62" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="24" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="F46" s="60" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G46" s="61" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H46" s="62" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="24" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F47" s="60" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G47" s="61" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H47" s="62" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="24" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F48" s="60" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G48" s="61" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H48" s="62" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="24" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F49" s="60" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G49" s="61" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H49" s="62" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="24" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="F50" s="60" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G50" s="61" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H50" s="62" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="24" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="F51" s="60" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G51" s="61" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H51" s="62" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="24" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F52" s="60" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G52" s="61" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="24" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="F53" s="63" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G53" s="64" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H53" s="65" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="53" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -13593,214 +14615,214 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="53" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B63" s="53" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B64" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B65" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B66" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B67" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B68" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B69" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B70" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B71" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="B72" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="B73" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="B74" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="B75" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="53"/>
       <c r="B83" s="53" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="C83" s="53" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="53" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C84" s="53" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B85" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="C85" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B86" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C86" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="B87" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C87" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B88" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C88" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="B89" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C89" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="B90" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="C90" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="B91" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C91" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="B92" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C92" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
@@ -13834,22 +14856,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="53" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="53" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="54" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="A5" s="34" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -13873,10 +14895,10 @@
     </row>
     <row r="7" spans="1:7" ht="60">
       <c r="A7" s="18" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>292</v>
@@ -13885,7 +14907,7 @@
         <v>389</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>391</v>
@@ -13914,22 +14936,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D9" s="38" t="s">
+        <v>878</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>894</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G9" s="38" t="s">
         <v>880</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>898</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13937,22 +14959,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>895</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>881</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>899</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -13960,22 +14982,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13983,22 +15005,22 @@
         <v>4</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -14006,22 +15028,22 @@
         <v>5</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -14029,22 +15051,22 @@
         <v>6</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -14052,22 +15074,22 @@
         <v>7</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -14075,22 +15097,22 @@
         <v>8</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -14098,22 +15120,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -14121,22 +15143,22 @@
         <v>10</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -14144,22 +15166,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -14167,22 +15189,22 @@
         <v>12</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -14190,22 +15212,22 @@
         <v>13</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -14213,22 +15235,22 @@
         <v>14</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -14236,19 +15258,19 @@
         <v>15</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="G23" s="39" t="s">
         <v>483</v>
@@ -14259,22 +15281,22 @@
         <v>16</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -14282,22 +15304,22 @@
         <v>18</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -14305,22 +15327,22 @@
         <v>19</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -14328,22 +15350,22 @@
         <v>20</v>
       </c>
       <c r="B27" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>917</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>913</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>922</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -14351,22 +15373,22 @@
         <v>21</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E28" s="32" t="s">
+        <v>918</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>923</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -14374,22 +15396,22 @@
         <v>22</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E29" s="32" t="s">
+        <v>919</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>924</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -14397,22 +15419,22 @@
         <v>23</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E30" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>925</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -14420,22 +15442,22 @@
         <v>25</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E31" s="32" t="s">
+        <v>921</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>926</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -14443,22 +15465,22 @@
         <v>27</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E32" s="33" t="s">
+        <v>922</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>927</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>932</v>
       </c>
     </row>
   </sheetData>
